--- a/config/forms/app/case_clinical_information.xlsx
+++ b/config/forms/app/case_clinical_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3EFD3-FB76-4747-AB6F-22B2EDA267B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7164272B-C933-4EAF-9561-8384D58EABEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9497" uniqueCount="2803">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="2805">
   <si>
     <t>form_title</t>
   </si>
@@ -7891,12 +7891,6 @@
     <t>outbreak_location_subcounty</t>
   </si>
   <si>
-    <t>../outbreak_location/outbreak/date</t>
-  </si>
-  <si>
-    <t>../outbreak_location/outbreak/status</t>
-  </si>
-  <si>
     <t>outbreak_name</t>
   </si>
   <si>
@@ -7918,12 +7912,6 @@
     <t>${outbreak_code} = 'unknown'</t>
   </si>
   <si>
-    <t>../outbreak_location/outbreak/code</t>
-  </si>
-  <si>
-    <t>../outbreak_location/outbreak/name</t>
-  </si>
-  <si>
     <t>Outbreak Location</t>
   </si>
   <si>
@@ -7936,24 +7924,12 @@
     <t>Outbreak</t>
   </si>
   <si>
-    <t>hidden select-contact type-outbreak_location</t>
-  </si>
-  <si>
     <t>ol_county</t>
   </si>
   <si>
     <t>ol_subcounty</t>
   </si>
   <si>
-    <t>../outbreak_location/ol_county</t>
-  </si>
-  <si>
-    <t>../outbreak_location/ol_subcounty</t>
-  </si>
-  <si>
-    <t>../../../inputs/contact/parent/parent/_id</t>
-  </si>
-  <si>
     <t>Abdominal Pain</t>
   </si>
   <si>
@@ -8206,9 +8182,6 @@
     <t>outbreak_location_name</t>
   </si>
   <si>
-    <t>../outbreak_location/name</t>
-  </si>
-  <si>
     <t>&lt;h4 style="padding: 5px 0;"&gt;Outbreak Location: ${outbreak_location_name}&lt;/h4&gt;</t>
   </si>
   <si>
@@ -8450,6 +8423,39 @@
   </si>
   <si>
     <t>Record ear, nose and throat (ENT)?</t>
+  </si>
+  <si>
+    <t>cases_group</t>
+  </si>
+  <si>
+    <t>Cases Group</t>
+  </si>
+  <si>
+    <t>../../../inputs/contact/parent/_id</t>
+  </si>
+  <si>
+    <t>hidden select-contact type-cases_group</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/code</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/name</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/date</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/outbreak/status</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/name</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/ol_county</t>
+  </si>
+  <si>
+    <t>../cases_group/outbreak_location/ol_subcounty</t>
   </si>
 </sst>
 </file>
@@ -8536,7 +8542,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8592,11 +8598,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -8626,7 +8627,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -8634,10 +8635,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -8658,19 +8658,17 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="8"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="20% - Accent1" xfId="8" builtinId="30"/>
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="7" builtinId="30"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
     <cellStyle name="40% - Accent1" xfId="2" builtinId="31"/>
     <cellStyle name="60% - Accent1" xfId="4" builtinId="32"/>
     <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
-    <cellStyle name="Accent6" xfId="7" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{74F09D6D-ED9D-4FE9-9749-390992714CDA}"/>
   </cellStyles>
@@ -8984,12 +8982,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
-  <dimension ref="A1:M369"/>
+  <dimension ref="A1:M379"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A262" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="A6:B6"/>
-      <selection pane="bottomLeft" activeCell="C351" sqref="C351"/>
+      <selection pane="bottomLeft" activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9454,921 +9452,915 @@
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B29" s="16" t="s">
-        <v>38</v>
-      </c>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B32" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="C30" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
     </row>
     <row r="33" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7" t="s">
+    <row r="40" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B35" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>2547</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7" t="s">
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-    </row>
-    <row r="36" spans="1:13" s="17" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="18" t="s">
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13" s="17" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B42" s="16" t="s">
         <v>2605</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="H37" s="18" t="s">
+      <c r="H42" s="16" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+    <row r="43" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B43" s="16" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E44" s="12" t="b">
+        <v>1</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>2796</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>2797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>2501</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>2613</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C47" s="16" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-      <c r="B39" t="s">
+    <row r="48" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C48" s="12" t="s">
+        <v>2623</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>2627</v>
       </c>
-      <c r="E39" t="b">
-        <v>1</v>
-      </c>
-      <c r="G39" t="s">
-        <v>2636</v>
-      </c>
-      <c r="H39" t="s">
-        <v>2631</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+      <c r="C50" s="12" t="s">
+        <v>2624</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B51" s="12" t="s">
+        <v>2628</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:7" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>2601</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C40" t="s">
-        <v>2723</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+      <c r="C55" s="12" t="s">
+        <v>2602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B41" t="s">
-        <v>2632</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+      <c r="B56" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B42" t="s">
-        <v>2633</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2629</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="44" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="18" t="s">
+      <c r="B57" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>2612</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>2607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>2613</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="16" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>40</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2554</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="G63" t="s">
+        <v>2603</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2555</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64" t="s">
+        <v>2604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2617</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="G65" t="s">
+        <v>2798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2616</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2609</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="G67" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>40</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2712</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="G69" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>40</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2614</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="G70" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>40</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2615</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="G71" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>2610</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>2611</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>2553</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>2552</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B44" s="18" t="s">
-        <v>2601</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B80" s="8" t="s">
+        <v>2658</v>
+      </c>
+      <c r="C80" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2630</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" t="s">
-        <v>9</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2602</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>32</v>
-      </c>
-      <c r="B47" t="s">
-        <v>551</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2612</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B49" t="s">
-        <v>2606</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="18" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>2613</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="53" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>40</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2554</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="G53" t="s">
-        <v>2603</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2555</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" t="s">
-        <v>2604</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>40</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2619</v>
-      </c>
-      <c r="C55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55" t="s">
-        <v>2625</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>40</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2618</v>
-      </c>
-      <c r="C56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G56" t="s">
-        <v>2626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>40</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2609</v>
-      </c>
-      <c r="C57" t="s">
-        <v>30</v>
-      </c>
-      <c r="G57" t="s">
-        <v>2616</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>40</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2608</v>
-      </c>
-      <c r="C58" t="s">
-        <v>30</v>
-      </c>
-      <c r="G58" t="s">
-        <v>2617</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2720</v>
-      </c>
-      <c r="C59" t="s">
-        <v>30</v>
-      </c>
-      <c r="G59" t="s">
-        <v>2721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2614</v>
-      </c>
-      <c r="C60" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" t="s">
-        <v>2634</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2615</v>
-      </c>
-      <c r="C61" t="s">
-        <v>30</v>
-      </c>
-      <c r="G61" t="s">
-        <v>2635</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B63" s="21" t="s">
-        <v>2610</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>2719</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B64" s="21" t="s">
-        <v>2611</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>2722</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>2553</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>2717</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>2552</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>2718</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>2772</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>2784</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>2605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>2666</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>2667</v>
-      </c>
-      <c r="H70" s="8" t="s">
+      <c r="F80" s="8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>47</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2668</v>
-      </c>
-      <c r="C71" t="s">
-        <v>2572</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
-      </c>
-      <c r="J71" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>2669</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2665</v>
-      </c>
-      <c r="C72" t="s">
-        <v>2546</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>57</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2670</v>
-      </c>
-      <c r="C73" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2671</v>
-      </c>
-      <c r="M73" t="s">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>534</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2672</v>
-      </c>
-      <c r="C74" t="s">
-        <v>2654</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>2666</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>2620</v>
-      </c>
-      <c r="H77" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2570</v>
-      </c>
-      <c r="C78" t="s">
-        <v>2572</v>
-      </c>
-      <c r="D78" t="s">
-        <v>13</v>
-      </c>
-      <c r="J78" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" t="s">
-        <v>2546</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>57</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2598</v>
-      </c>
-      <c r="C80" t="s">
-        <v>2655</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2712</v>
-      </c>
-      <c r="M80" t="s">
-        <v>2596</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B81" t="s">
-        <v>2556</v>
+        <v>2660</v>
       </c>
       <c r="C81" t="s">
-        <v>2571</v>
+        <v>2572</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
       </c>
+      <c r="J81" t="s">
+        <v>2599</v>
+      </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>2559</v>
+        <v>2661</v>
       </c>
       <c r="B82" t="s">
-        <v>2557</v>
+        <v>2657</v>
       </c>
       <c r="C82" t="s">
-        <v>2558</v>
+        <v>2546</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
       </c>
-      <c r="F82" t="s">
-        <v>2562</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>78</v>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2663</v>
+      </c>
+      <c r="M83" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>534</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2664</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2646</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C85" s="8" t="s">
+      <c r="B87" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C87" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>2621</v>
-      </c>
-      <c r="H85" s="8" t="s">
+      <c r="F87" s="8" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H87" s="8" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>47</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2569</v>
-      </c>
-      <c r="C86" t="s">
-        <v>549</v>
-      </c>
-      <c r="D86" t="s">
-        <v>13</v>
-      </c>
-      <c r="J86" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>82</v>
-      </c>
-      <c r="C87" t="s">
-        <v>2546</v>
-      </c>
-      <c r="D87" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
-        <v>2597</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
-        <v>2595</v>
-      </c>
-      <c r="M88" t="s">
-        <v>2716</v>
+        <v>2546</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F89" t="s">
+        <v>2704</v>
+      </c>
+      <c r="M89" t="s">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2570</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2572</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>48</v>
       </c>
-      <c r="B89" t="s">
-        <v>2779</v>
-      </c>
-      <c r="C89" t="s">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="8" t="s">
+      <c r="B91" t="s">
+        <v>2556</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>2559</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2558</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B93" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>2742</v>
-      </c>
-      <c r="C92" s="8" t="s">
+      <c r="C95" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F92" s="8" t="s">
-        <v>2621</v>
-      </c>
-      <c r="H92" s="8" t="s">
+      <c r="F95" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H95" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>235</v>
-      </c>
-      <c r="B93" t="s">
-        <v>2745</v>
-      </c>
-      <c r="C93" t="s">
-        <v>2746</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D96" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B94" t="s">
-        <v>2743</v>
-      </c>
-      <c r="C94" t="s">
-        <v>508</v>
-      </c>
-      <c r="D94" t="s">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>57</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2595</v>
+      </c>
+      <c r="M97" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>47</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2569</v>
+      </c>
+      <c r="C98" t="s">
+        <v>549</v>
+      </c>
+      <c r="D98" t="s">
         <v>13</v>
       </c>
-      <c r="F94" t="s">
-        <v>2747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>57</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2768</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2770</v>
-      </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" t="s">
-        <v>2769</v>
-      </c>
-      <c r="M95" t="s">
-        <v>2771</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>2741</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B98" s="8" t="s">
-        <v>2724</v>
-      </c>
-      <c r="C98" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>2621</v>
-      </c>
-      <c r="H98" s="8" t="s">
-        <v>49</v>
+      <c r="J98" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B99" t="s">
-        <v>2726</v>
+        <v>2770</v>
       </c>
       <c r="C99" t="s">
-        <v>2725</v>
-      </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>47</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2727</v>
-      </c>
-      <c r="C100" t="s">
-        <v>2740</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" t="s">
-        <v>2728</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>235</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2731</v>
-      </c>
-      <c r="C101" t="s">
-        <v>2729</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>57</v>
-      </c>
-      <c r="B102" t="s">
-        <v>2730</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2732</v>
-      </c>
-      <c r="F102" t="s">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>2733</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H102" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="B103" t="s">
-        <v>2734</v>
+        <v>2736</v>
       </c>
       <c r="C103" t="s">
-        <v>2735</v>
-      </c>
-      <c r="F103" t="s">
-        <v>2733</v>
+        <v>2737</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>235</v>
+        <v>2735</v>
       </c>
       <c r="B104" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
       <c r="C104" t="s">
-        <v>2739</v>
+        <v>508</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
       </c>
       <c r="F104" t="s">
-        <v>2733</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
+        <v>57</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2760</v>
+      </c>
+      <c r="M105" t="s">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H108" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>235</v>
       </c>
-      <c r="B105" t="s">
-        <v>2775</v>
-      </c>
-      <c r="C105" t="s">
-        <v>2776</v>
-      </c>
-      <c r="F105" t="s">
-        <v>2777</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>47</v>
-      </c>
-      <c r="B106" t="s">
-        <v>2778</v>
-      </c>
-      <c r="C106" t="s">
-        <v>2737</v>
-      </c>
-      <c r="F106" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>2724</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>2622</v>
-      </c>
-      <c r="H109" s="8" t="s">
-        <v>49</v>
+      <c r="B109" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2716</v>
+      </c>
+      <c r="D109" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.35">
@@ -10376,30 +10368,27 @@
         <v>47</v>
       </c>
       <c r="B110" t="s">
-        <v>2568</v>
+        <v>2718</v>
       </c>
       <c r="C110" t="s">
-        <v>549</v>
+        <v>2731</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
       </c>
-      <c r="J110" t="s">
-        <v>2599</v>
+      <c r="F110" t="s">
+        <v>2719</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B111" t="s">
-        <v>2573</v>
+        <v>2722</v>
       </c>
       <c r="C111" t="s">
-        <v>2502</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.35">
@@ -10407,111 +10396,105 @@
         <v>57</v>
       </c>
       <c r="B112" t="s">
-        <v>2574</v>
+        <v>2721</v>
       </c>
       <c r="C112" t="s">
-        <v>2549</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-      <c r="M112" t="s">
-        <v>2550</v>
+        <v>2723</v>
+      </c>
+      <c r="F112" t="s">
+        <v>2724</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>99</v>
+        <v>2725</v>
       </c>
       <c r="C113" t="s">
-        <v>2546</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
+        <v>2726</v>
+      </c>
+      <c r="F113" t="s">
+        <v>2724</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B114" t="s">
-        <v>2594</v>
+        <v>2727</v>
       </c>
       <c r="C114" t="s">
-        <v>2595</v>
+        <v>2730</v>
       </c>
       <c r="F114" t="s">
-        <v>2713</v>
-      </c>
-      <c r="M114" t="s">
-        <v>2716</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B115" t="s">
-        <v>249</v>
+        <v>2766</v>
       </c>
       <c r="C115" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" t="s">
-        <v>13</v>
+        <v>2767</v>
       </c>
       <c r="F115" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="8" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>47</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C116" t="s">
+        <v>2728</v>
+      </c>
+      <c r="F116" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>2622</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>49</v>
+      <c r="B117" s="8" t="s">
+        <v>2715</v>
       </c>
     </row>
     <row r="119" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>2706</v>
+        <v>124</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>2689</v>
+        <v>30</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="B120" t="s">
-        <v>2677</v>
+        <v>99</v>
       </c>
       <c r="C120" t="s">
-        <v>2675</v>
+        <v>2546</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -10519,53 +10502,53 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B121" t="s">
-        <v>2678</v>
+        <v>2594</v>
       </c>
       <c r="C121" t="s">
-        <v>2676</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
+        <v>2595</v>
       </c>
       <c r="F121" t="s">
-        <v>2690</v>
+        <v>2705</v>
+      </c>
+      <c r="M121" t="s">
+        <v>2708</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2681</v>
+        <v>57</v>
       </c>
       <c r="B122" t="s">
-        <v>2679</v>
+        <v>249</v>
       </c>
       <c r="C122" t="s">
-        <v>2680</v>
+        <v>250</v>
       </c>
       <c r="D122" t="s">
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>2690</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B123" t="s">
-        <v>2683</v>
+        <v>2568</v>
       </c>
       <c r="C123" t="s">
-        <v>2685</v>
+        <v>549</v>
       </c>
       <c r="D123" t="s">
         <v>13</v>
       </c>
-      <c r="F123" t="s">
-        <v>2690</v>
+      <c r="J123" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.35">
@@ -10573,16 +10556,13 @@
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>2684</v>
+        <v>2573</v>
       </c>
       <c r="C124" t="s">
-        <v>2686</v>
+        <v>2502</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
-      </c>
-      <c r="F124" t="s">
-        <v>2690</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.35">
@@ -10590,181 +10570,187 @@
         <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>2688</v>
+        <v>2574</v>
       </c>
       <c r="C125" t="s">
-        <v>2687</v>
-      </c>
-      <c r="F125" t="s">
-        <v>2690</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="8" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D125" t="s">
+        <v>13</v>
+      </c>
+      <c r="M125" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>2707</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>2691</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>235</v>
-      </c>
-      <c r="B128" t="s">
-        <v>128</v>
-      </c>
-      <c r="C128" t="s">
-        <v>127</v>
-      </c>
-      <c r="D128" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
-        <v>57</v>
-      </c>
-      <c r="B129" t="s">
-        <v>129</v>
-      </c>
-      <c r="C129" t="s">
-        <v>130</v>
-      </c>
-      <c r="F129" t="s">
-        <v>132</v>
+      <c r="B129" s="8" t="s">
+        <v>2698</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>2681</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>2669</v>
       </c>
       <c r="C130" t="s">
-        <v>242</v>
-      </c>
-      <c r="F130" t="s">
-        <v>132</v>
+        <v>2667</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>2670</v>
       </c>
       <c r="C131" t="s">
-        <v>134</v>
+        <v>2668</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
       </c>
       <c r="F131" t="s">
-        <v>132</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>47</v>
+        <v>2673</v>
       </c>
       <c r="B132" t="s">
-        <v>135</v>
+        <v>2671</v>
       </c>
       <c r="C132" t="s">
-        <v>136</v>
+        <v>2672</v>
+      </c>
+      <c r="D132" t="s">
+        <v>13</v>
       </c>
       <c r="F132" t="s">
-        <v>132</v>
-      </c>
-      <c r="J132" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>2708</v>
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>57</v>
+      </c>
+      <c r="B133" t="s">
+        <v>2675</v>
+      </c>
+      <c r="C133" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+      <c r="F133" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>57</v>
+      </c>
+      <c r="B134" t="s">
+        <v>2676</v>
+      </c>
+      <c r="C134" t="s">
+        <v>2678</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+      <c r="F134" t="s">
+        <v>2682</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B135" t="s">
-        <v>137</v>
+        <v>2680</v>
       </c>
       <c r="C135" t="s">
-        <v>237</v>
-      </c>
-      <c r="D135" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A136" t="s">
-        <v>57</v>
-      </c>
-      <c r="B136" t="s">
-        <v>2710</v>
-      </c>
-      <c r="C136" t="s">
-        <v>2711</v>
-      </c>
-      <c r="F136" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A137" t="s">
-        <v>140</v>
-      </c>
-      <c r="B137" t="s">
-        <v>139</v>
-      </c>
-      <c r="C137" t="s">
-        <v>138</v>
-      </c>
-      <c r="F137" t="s">
-        <v>149</v>
+        <v>2679</v>
+      </c>
+      <c r="F135" t="s">
+        <v>2682</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>2699</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>2683</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="C138" t="s">
-        <v>151</v>
-      </c>
-      <c r="F138" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B139" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C139" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="F139" t="s">
-        <v>149</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2599</v>
+        <v>132</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.35">
@@ -10772,13 +10758,13 @@
         <v>57</v>
       </c>
       <c r="B140" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C140" t="s">
-        <v>155</v>
+        <v>242</v>
       </c>
       <c r="F140" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.35">
@@ -10786,86 +10772,83 @@
         <v>57</v>
       </c>
       <c r="B141" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C141" t="s">
         <v>134</v>
       </c>
       <c r="F141" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
       <c r="B142" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="C142" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="F142" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A143" t="s">
-        <v>47</v>
-      </c>
-      <c r="B143" t="s">
-        <v>167</v>
-      </c>
-      <c r="C143" t="s">
-        <v>168</v>
-      </c>
-      <c r="F143" t="s">
-        <v>169</v>
-      </c>
-      <c r="J143" t="s">
+        <v>132</v>
+      </c>
+      <c r="J142" t="s">
         <v>2599</v>
       </c>
     </row>
-    <row r="145" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="8" t="s">
+    <row r="144" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>2709</v>
+      <c r="B144" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>235</v>
+      </c>
+      <c r="B145" t="s">
+        <v>137</v>
+      </c>
+      <c r="C145" t="s">
+        <v>237</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>2702</v>
       </c>
       <c r="C146" t="s">
-        <v>226</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-      <c r="H146" t="s">
-        <v>533</v>
+        <v>2703</v>
+      </c>
+      <c r="F146" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="C147" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="F147" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.35">
@@ -10873,13 +10856,13 @@
         <v>57</v>
       </c>
       <c r="B148" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C148" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="F148" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.35">
@@ -10887,13 +10870,13 @@
         <v>47</v>
       </c>
       <c r="B149" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C149" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="F149" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="J149" t="s">
         <v>2599</v>
@@ -10904,13 +10887,13 @@
         <v>57</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="C150" t="s">
         <v>155</v>
       </c>
       <c r="F150" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.35">
@@ -10918,72 +10901,69 @@
         <v>57</v>
       </c>
       <c r="B151" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="C151" t="s">
         <v>134</v>
       </c>
       <c r="F151" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>235</v>
+        <v>159</v>
       </c>
       <c r="B152" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C152" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="F152" t="s">
-        <v>180</v>
-      </c>
-      <c r="H152" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>47</v>
+      </c>
+      <c r="B153" t="s">
+        <v>167</v>
+      </c>
+      <c r="C153" t="s">
+        <v>168</v>
+      </c>
+      <c r="F153" t="s">
+        <v>169</v>
+      </c>
+      <c r="J153" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B154" t="s">
-        <v>229</v>
-      </c>
-      <c r="C154" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>235</v>
-      </c>
-      <c r="B155" t="s">
-        <v>182</v>
-      </c>
-      <c r="C155" t="s">
-        <v>183</v>
-      </c>
-      <c r="D155" t="s">
-        <v>13</v>
-      </c>
-      <c r="H155" t="s">
-        <v>533</v>
+      <c r="B155" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>2701</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B156" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="C156" t="s">
-        <v>185</v>
-      </c>
-      <c r="F156" t="s">
-        <v>201</v>
+        <v>226</v>
+      </c>
+      <c r="D156" t="s">
+        <v>13</v>
       </c>
       <c r="H156" t="s">
         <v>533</v>
@@ -10994,13 +10974,13 @@
         <v>57</v>
       </c>
       <c r="B157" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C157" t="s">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="F157" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.35">
@@ -11008,111 +10988,117 @@
         <v>57</v>
       </c>
       <c r="B158" t="s">
-        <v>204</v>
+        <v>174</v>
       </c>
       <c r="C158" t="s">
-        <v>203</v>
+        <v>173</v>
       </c>
       <c r="F158" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="B159" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="C159" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="F159" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+      <c r="J159" t="s">
+        <v>2599</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B160" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
       <c r="C160" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
       <c r="F160" t="s">
-        <v>201</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>57</v>
+      </c>
+      <c r="B161" t="s">
+        <v>178</v>
+      </c>
+      <c r="C161" t="s">
+        <v>134</v>
+      </c>
+      <c r="F161" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>77</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c r="C162" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" t="s">
-        <v>235</v>
-      </c>
-      <c r="B163" t="s">
-        <v>208</v>
-      </c>
-      <c r="C163" t="s">
-        <v>225</v>
-      </c>
-      <c r="D163" t="s">
-        <v>13</v>
-      </c>
-      <c r="H163" t="s">
+        <v>179</v>
+      </c>
+      <c r="F162" t="s">
+        <v>180</v>
+      </c>
+      <c r="H162" t="s">
         <v>533</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="B164" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C164" t="s">
-        <v>209</v>
-      </c>
-      <c r="F164" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B165" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="C165" t="s">
-        <v>238</v>
-      </c>
-      <c r="F165" t="s">
-        <v>217</v>
+        <v>183</v>
+      </c>
+      <c r="D165" t="s">
+        <v>13</v>
+      </c>
+      <c r="H165" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C166" t="s">
-        <v>241</v>
+        <v>185</v>
       </c>
       <c r="F166" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="H166" t="s">
         <v>533</v>
@@ -11123,91 +11109,111 @@
         <v>57</v>
       </c>
       <c r="B167" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C167" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="F167" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B168" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C168" t="s">
-        <v>239</v>
+        <v>203</v>
       </c>
       <c r="F168" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
+        <v>57</v>
+      </c>
+      <c r="B169" t="s">
+        <v>205</v>
+      </c>
+      <c r="C169" t="s">
+        <v>134</v>
+      </c>
+      <c r="F169" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
         <v>47</v>
       </c>
-      <c r="B169" t="s">
-        <v>213</v>
-      </c>
-      <c r="C169" t="s">
-        <v>240</v>
-      </c>
-      <c r="F169" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>77</v>
-      </c>
-      <c r="B171" t="s">
-        <v>231</v>
-      </c>
-      <c r="C171" t="s">
-        <v>245</v>
+      <c r="B170" t="s">
+        <v>206</v>
+      </c>
+      <c r="C170" t="s">
+        <v>207</v>
+      </c>
+      <c r="F170" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="B172" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="C172" t="s">
-        <v>222</v>
-      </c>
-      <c r="H172" t="s">
-        <v>533</v>
+        <v>244</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="B173" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="C173" t="s">
-        <v>223</v>
-      </c>
-      <c r="F173" t="s">
-        <v>221</v>
+        <v>225</v>
+      </c>
+      <c r="D173" t="s">
+        <v>13</v>
+      </c>
+      <c r="H173" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>57</v>
+      </c>
+      <c r="B174" t="s">
+        <v>215</v>
+      </c>
+      <c r="C174" t="s">
+        <v>209</v>
+      </c>
+      <c r="F174" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B175" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="C175" t="s">
-        <v>246</v>
+        <v>238</v>
+      </c>
+      <c r="F175" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
@@ -11215,471 +11221,471 @@
         <v>235</v>
       </c>
       <c r="B176" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="C176" t="s">
-        <v>224</v>
-      </c>
-      <c r="D176" t="s">
-        <v>13</v>
+        <v>241</v>
+      </c>
+      <c r="F176" t="s">
+        <v>217</v>
       </c>
       <c r="H176" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="177" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A177" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="B177" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="179" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B179" s="8" t="s">
-        <v>2575</v>
-      </c>
-      <c r="C179" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F179" s="8" t="s">
-        <v>2623</v>
-      </c>
-      <c r="H179" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>57</v>
+      </c>
+      <c r="B177" t="s">
+        <v>211</v>
+      </c>
+      <c r="C177" t="s">
+        <v>212</v>
+      </c>
+      <c r="F177" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>47</v>
       </c>
-      <c r="B180" t="s">
-        <v>2576</v>
-      </c>
-      <c r="C180" t="s">
-        <v>549</v>
-      </c>
-      <c r="D180" t="s">
-        <v>13</v>
-      </c>
-      <c r="J180" t="s">
-        <v>2599</v>
-      </c>
-    </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B178" t="s">
+        <v>214</v>
+      </c>
+      <c r="C178" t="s">
+        <v>239</v>
+      </c>
+      <c r="F178" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>47</v>
+      </c>
+      <c r="B179" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" t="s">
+        <v>240</v>
+      </c>
+      <c r="F179" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>77</v>
       </c>
       <c r="B181" t="s">
-        <v>2589</v>
+        <v>231</v>
       </c>
       <c r="C181" t="s">
-        <v>2590</v>
-      </c>
-      <c r="D181" t="s">
-        <v>13</v>
-      </c>
-      <c r="H181" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.35">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B182" t="s">
-        <v>2588</v>
+        <v>219</v>
       </c>
       <c r="C182" t="s">
-        <v>2591</v>
-      </c>
-      <c r="D182" t="s">
-        <v>13</v>
+        <v>222</v>
       </c>
       <c r="H182" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>2592</v>
+        <v>47</v>
       </c>
       <c r="B183" t="s">
-        <v>2577</v>
+        <v>220</v>
       </c>
       <c r="C183" t="s">
-        <v>2582</v>
-      </c>
-      <c r="D183" t="s">
+        <v>223</v>
+      </c>
+      <c r="F183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>77</v>
+      </c>
+      <c r="B185" t="s">
+        <v>232</v>
+      </c>
+      <c r="C185" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>235</v>
+      </c>
+      <c r="B186" t="s">
+        <v>233</v>
+      </c>
+      <c r="C186" t="s">
+        <v>224</v>
+      </c>
+      <c r="D186" t="s">
         <v>13</v>
       </c>
-      <c r="F183" t="s">
-        <v>2593</v>
-      </c>
-      <c r="H183" t="s">
+      <c r="H186" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="187" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A187" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B187" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>2575</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H189" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>48</v>
       </c>
-      <c r="B184" t="s">
-        <v>2585</v>
-      </c>
-      <c r="C184" t="s">
-        <v>2583</v>
-      </c>
-      <c r="D184" t="s">
-        <v>13</v>
-      </c>
-      <c r="H184" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>47</v>
-      </c>
-      <c r="B185" t="s">
-        <v>2584</v>
-      </c>
-      <c r="C185" t="s">
-        <v>2586</v>
-      </c>
-      <c r="D185" t="s">
-        <v>13</v>
-      </c>
-      <c r="F185" t="s">
-        <v>2587</v>
-      </c>
-    </row>
-    <row r="186" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B186" s="8" t="s">
-        <v>2575</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B188" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C188" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F188" s="8" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
-        <v>257</v>
-      </c>
-      <c r="B189" t="s">
-        <v>260</v>
-      </c>
-      <c r="C189" t="s">
-        <v>254</v>
-      </c>
-      <c r="D189" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
-        <v>235</v>
-      </c>
       <c r="B190" t="s">
-        <v>258</v>
+        <v>2589</v>
       </c>
       <c r="C190" t="s">
-        <v>259</v>
+        <v>2590</v>
       </c>
       <c r="D190" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H190" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>546</v>
+        <v>48</v>
       </c>
       <c r="B191" t="s">
-        <v>261</v>
+        <v>2588</v>
       </c>
       <c r="C191" t="s">
-        <v>262</v>
+        <v>2591</v>
       </c>
       <c r="D191" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H191" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>235</v>
+        <v>2592</v>
       </c>
       <c r="B192" t="s">
-        <v>263</v>
+        <v>2577</v>
       </c>
       <c r="C192" t="s">
-        <v>93</v>
+        <v>2582</v>
       </c>
       <c r="D192" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F192" t="s">
+        <v>2593</v>
+      </c>
+      <c r="H192" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>235</v>
+        <v>47</v>
       </c>
       <c r="B193" t="s">
-        <v>264</v>
+        <v>2576</v>
       </c>
       <c r="C193" t="s">
-        <v>265</v>
+        <v>549</v>
       </c>
       <c r="D193" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="J193" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>2585</v>
       </c>
       <c r="C194" t="s">
-        <v>267</v>
+        <v>2583</v>
       </c>
       <c r="D194" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H194" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>268</v>
+        <v>47</v>
       </c>
       <c r="B195" t="s">
-        <v>269</v>
+        <v>2584</v>
       </c>
       <c r="C195" t="s">
-        <v>289</v>
+        <v>2586</v>
       </c>
       <c r="D195" t="s">
         <v>13</v>
       </c>
       <c r="F195" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>57</v>
-      </c>
-      <c r="B196" t="s">
-        <v>271</v>
-      </c>
-      <c r="C196" t="s">
-        <v>290</v>
-      </c>
-      <c r="D196" t="s">
-        <v>13</v>
-      </c>
-      <c r="F196" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>235</v>
-      </c>
-      <c r="B198" t="s">
-        <v>284</v>
-      </c>
-      <c r="C198" t="s">
-        <v>285</v>
-      </c>
-      <c r="D198" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C198" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
       </c>
-      <c r="F199" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B200" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C200" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="D200" t="s">
         <v>13</v>
       </c>
-      <c r="F200" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>546</v>
+      </c>
+      <c r="B201" t="s">
+        <v>261</v>
+      </c>
+      <c r="C201" t="s">
+        <v>262</v>
+      </c>
+      <c r="D201" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>235</v>
       </c>
       <c r="B202" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="C202" t="s">
-        <v>308</v>
+        <v>93</v>
       </c>
       <c r="D202" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>235</v>
       </c>
       <c r="B203" t="s">
-        <v>311</v>
+        <v>264</v>
       </c>
       <c r="C203" t="s">
-        <v>310</v>
+        <v>265</v>
       </c>
       <c r="D203" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>235</v>
       </c>
       <c r="B204" t="s">
-        <v>313</v>
+        <v>266</v>
       </c>
       <c r="C204" t="s">
-        <v>312</v>
+        <v>267</v>
       </c>
       <c r="D204" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>57</v>
+        <v>268</v>
       </c>
       <c r="B205" t="s">
-        <v>71</v>
+        <v>269</v>
       </c>
       <c r="C205" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+        <v>289</v>
+      </c>
+      <c r="D205" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>57</v>
       </c>
       <c r="B206" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="C206" t="s">
-        <v>314</v>
+        <v>290</v>
       </c>
       <c r="D206" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="207" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A207" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B207" s="8" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A209" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B209" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="C209" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H209" s="13" t="s">
-        <v>49</v>
+      <c r="F206" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>235</v>
+      </c>
+      <c r="B208" t="s">
+        <v>284</v>
+      </c>
+      <c r="C208" t="s">
+        <v>285</v>
+      </c>
+      <c r="D208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>286</v>
+      </c>
+      <c r="B209" t="s">
+        <v>287</v>
+      </c>
+      <c r="C209" t="s">
+        <v>288</v>
+      </c>
+      <c r="D209" t="s">
+        <v>13</v>
+      </c>
+      <c r="F209" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B210" t="s">
-        <v>327</v>
+        <v>292</v>
       </c>
       <c r="C210" t="s">
-        <v>2799</v>
+        <v>293</v>
       </c>
       <c r="D210" t="s">
         <v>13</v>
       </c>
-      <c r="I210" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B212" s="21" t="s">
-        <v>2786</v>
-      </c>
-      <c r="C212" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F212" s="21" t="s">
-        <v>328</v>
+      <c r="F210" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>235</v>
+      </c>
+      <c r="B212" t="s">
+        <v>309</v>
+      </c>
+      <c r="C212" t="s">
+        <v>308</v>
+      </c>
+      <c r="D212" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="B213" t="s">
-        <v>535</v>
+        <v>311</v>
       </c>
       <c r="C213" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="D213" t="s">
         <v>13</v>
@@ -11690,10 +11696,10 @@
         <v>235</v>
       </c>
       <c r="B214" t="s">
-        <v>536</v>
+        <v>313</v>
       </c>
       <c r="C214" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="D214" t="s">
         <v>13</v>
@@ -11701,162 +11707,139 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>534</v>
+        <v>57</v>
       </c>
       <c r="B215" t="s">
-        <v>537</v>
+        <v>71</v>
       </c>
       <c r="C215" t="s">
-        <v>325</v>
-      </c>
-      <c r="D215" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>534</v>
+        <v>57</v>
       </c>
       <c r="B216" t="s">
-        <v>538</v>
+        <v>315</v>
       </c>
       <c r="C216" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D216" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
-        <v>48</v>
-      </c>
-      <c r="B218" t="s">
-        <v>539</v>
-      </c>
-      <c r="C218" t="s">
-        <v>316</v>
-      </c>
-      <c r="D218" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>235</v>
-      </c>
-      <c r="B219" t="s">
-        <v>540</v>
-      </c>
-      <c r="C219" t="s">
-        <v>317</v>
-      </c>
-      <c r="D219" t="s">
-        <v>13</v>
-      </c>
-      <c r="F219" t="s">
-        <v>2785</v>
+    <row r="217" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A217" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" s="8" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A219" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B219" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C219" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H219" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>541</v>
+        <v>327</v>
       </c>
       <c r="C220" t="s">
-        <v>318</v>
+        <v>2790</v>
       </c>
       <c r="D220" t="s">
         <v>13</v>
       </c>
-      <c r="F220" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
-        <v>235</v>
-      </c>
-      <c r="B221" t="s">
-        <v>542</v>
-      </c>
-      <c r="C221" t="s">
-        <v>319</v>
-      </c>
-      <c r="D221" t="s">
-        <v>13</v>
-      </c>
-      <c r="F221" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>235</v>
-      </c>
-      <c r="B222" t="s">
-        <v>543</v>
-      </c>
-      <c r="C222" t="s">
-        <v>320</v>
-      </c>
-      <c r="D222" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
-        <v>545</v>
+      <c r="I220" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B222" s="20" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C222" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F222" s="20" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>57</v>
+        <v>534</v>
       </c>
       <c r="B223" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="C223" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="D223" t="s">
         <v>13</v>
       </c>
-      <c r="F223" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A224" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B224" s="21" t="s">
-        <v>2786</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A225" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B225" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B227" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="C227" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F227" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H227" s="13" t="s">
-        <v>49</v>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>235</v>
+      </c>
+      <c r="B224" t="s">
+        <v>536</v>
+      </c>
+      <c r="C224" t="s">
+        <v>329</v>
+      </c>
+      <c r="D224" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>534</v>
+      </c>
+      <c r="B225" t="s">
+        <v>537</v>
+      </c>
+      <c r="C225" t="s">
+        <v>325</v>
+      </c>
+      <c r="D225" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>534</v>
+      </c>
+      <c r="B226" t="s">
+        <v>538</v>
+      </c>
+      <c r="C226" t="s">
+        <v>326</v>
+      </c>
+      <c r="D226" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.35">
@@ -11864,529 +11847,491 @@
         <v>48</v>
       </c>
       <c r="B228" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="C228" t="s">
-        <v>2798</v>
+        <v>316</v>
       </c>
       <c r="D228" t="s">
         <v>13</v>
       </c>
-      <c r="I228" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B230" s="21" t="s">
-        <v>2787</v>
-      </c>
-      <c r="C230" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F230" s="21" t="s">
-        <v>333</v>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>235</v>
+      </c>
+      <c r="B229" t="s">
+        <v>540</v>
+      </c>
+      <c r="C229" t="s">
+        <v>317</v>
+      </c>
+      <c r="D229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>235</v>
+      </c>
+      <c r="B230" t="s">
+        <v>541</v>
+      </c>
+      <c r="C230" t="s">
+        <v>318</v>
+      </c>
+      <c r="D230" t="s">
+        <v>13</v>
+      </c>
+      <c r="F230" t="s">
+        <v>545</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="B231" t="s">
-        <v>332</v>
+        <v>542</v>
       </c>
       <c r="C231" t="s">
-        <v>2794</v>
+        <v>319</v>
       </c>
       <c r="D231" t="s">
         <v>13</v>
       </c>
+      <c r="F231" t="s">
+        <v>545</v>
+      </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>335</v>
+        <v>543</v>
       </c>
       <c r="C232" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D232" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
-        <v>48</v>
-      </c>
-      <c r="B234" t="s">
-        <v>337</v>
-      </c>
-      <c r="C234" t="s">
-        <v>336</v>
-      </c>
-      <c r="D234" t="s">
+      <c r="F232" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>57</v>
+      </c>
+      <c r="B233" t="s">
+        <v>544</v>
+      </c>
+      <c r="C233" t="s">
+        <v>323</v>
+      </c>
+      <c r="D233" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
-        <v>235</v>
-      </c>
-      <c r="B235" t="s">
-        <v>338</v>
-      </c>
-      <c r="C235" t="s">
-        <v>85</v>
-      </c>
-      <c r="D235" t="s">
-        <v>13</v>
-      </c>
-      <c r="F235" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
-        <v>235</v>
-      </c>
-      <c r="B236" t="s">
-        <v>340</v>
-      </c>
-      <c r="C236" t="s">
-        <v>341</v>
-      </c>
-      <c r="D236" t="s">
-        <v>13</v>
-      </c>
-      <c r="F236" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
-        <v>235</v>
-      </c>
-      <c r="B237" t="s">
-        <v>343</v>
-      </c>
-      <c r="C237" t="s">
-        <v>342</v>
-      </c>
-      <c r="D237" t="s">
-        <v>13</v>
-      </c>
-      <c r="F237" t="s">
-        <v>339</v>
+      <c r="F233" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B234" s="20" t="s">
+        <v>2777</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B235" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B237" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C237" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F237" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H237" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B238" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C238" t="s">
-        <v>344</v>
+        <v>2789</v>
       </c>
       <c r="D238" t="s">
         <v>13</v>
       </c>
-      <c r="F238" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
-        <v>235</v>
-      </c>
-      <c r="B239" t="s">
-        <v>347</v>
-      </c>
-      <c r="C239" t="s">
-        <v>346</v>
-      </c>
-      <c r="D239" t="s">
-        <v>13</v>
-      </c>
-      <c r="F239" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>235</v>
-      </c>
-      <c r="B240" t="s">
-        <v>349</v>
-      </c>
-      <c r="C240" t="s">
-        <v>348</v>
-      </c>
-      <c r="D240" t="s">
-        <v>13</v>
-      </c>
-      <c r="F240" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I238" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B240" s="20" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C240" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F240" s="20" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>235</v>
+        <v>534</v>
       </c>
       <c r="B241" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="C241" t="s">
-        <v>351</v>
+        <v>2785</v>
       </c>
       <c r="D241" t="s">
         <v>13</v>
       </c>
-      <c r="F241" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>235</v>
+        <v>534</v>
       </c>
       <c r="B242" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="C242" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="D242" t="s">
         <v>13</v>
       </c>
-      <c r="F242" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
-        <v>235</v>
-      </c>
-      <c r="B243" t="s">
-        <v>355</v>
-      </c>
-      <c r="C243" t="s">
-        <v>354</v>
-      </c>
-      <c r="D243" t="s">
-        <v>13</v>
-      </c>
-      <c r="F243" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B244" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="C244" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="D244" t="s">
         <v>13</v>
       </c>
-      <c r="F244" t="s">
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>235</v>
+      </c>
+      <c r="B245" t="s">
+        <v>338</v>
+      </c>
+      <c r="C245" t="s">
+        <v>85</v>
+      </c>
+      <c r="D245" t="s">
+        <v>13</v>
+      </c>
+      <c r="F245" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A245" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B245" s="21" t="s">
-        <v>2787</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B246" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B248" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F248" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H248" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>235</v>
+      </c>
+      <c r="B246" t="s">
+        <v>340</v>
+      </c>
+      <c r="C246" t="s">
+        <v>341</v>
+      </c>
+      <c r="D246" t="s">
+        <v>13</v>
+      </c>
+      <c r="F246" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>235</v>
+      </c>
+      <c r="B247" t="s">
+        <v>343</v>
+      </c>
+      <c r="C247" t="s">
+        <v>342</v>
+      </c>
+      <c r="D247" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>235</v>
+      </c>
+      <c r="B248" t="s">
+        <v>345</v>
+      </c>
+      <c r="C248" t="s">
+        <v>344</v>
+      </c>
+      <c r="D248" t="s">
+        <v>13</v>
+      </c>
+      <c r="F248" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B249" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="C249" t="s">
-        <v>2797</v>
+        <v>346</v>
       </c>
       <c r="D249" t="s">
         <v>13</v>
       </c>
-      <c r="I249" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="251" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B251" s="21" t="s">
-        <v>2788</v>
-      </c>
-      <c r="C251" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F251" s="21" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F249" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>235</v>
+      </c>
+      <c r="B250" t="s">
+        <v>349</v>
+      </c>
+      <c r="C250" t="s">
+        <v>348</v>
+      </c>
+      <c r="D250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>235</v>
+      </c>
+      <c r="B251" t="s">
+        <v>350</v>
+      </c>
+      <c r="C251" t="s">
+        <v>351</v>
+      </c>
+      <c r="D251" t="s">
+        <v>13</v>
+      </c>
+      <c r="F251" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>235</v>
       </c>
       <c r="B252" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C252" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="D252" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="F252" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>235</v>
       </c>
       <c r="B253" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C253" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="D253" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+      <c r="F253" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254" t="s">
+        <v>356</v>
+      </c>
+      <c r="C254" t="s">
+        <v>357</v>
+      </c>
+      <c r="D254" t="s">
+        <v>13</v>
+      </c>
+      <c r="F254" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B255" s="20" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B256" s="9" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B258" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="C258" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F258" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H258" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>48</v>
       </c>
-      <c r="B255" t="s">
-        <v>366</v>
-      </c>
-      <c r="C255" t="s">
-        <v>365</v>
-      </c>
-      <c r="D255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
-        <v>235</v>
-      </c>
-      <c r="B256" t="s">
-        <v>368</v>
-      </c>
-      <c r="C256" t="s">
-        <v>367</v>
-      </c>
-      <c r="D256" t="s">
-        <v>13</v>
-      </c>
-      <c r="F256" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>235</v>
-      </c>
-      <c r="B257" t="s">
-        <v>369</v>
-      </c>
-      <c r="C257" t="s">
-        <v>122</v>
-      </c>
-      <c r="D257" t="s">
-        <v>13</v>
-      </c>
-      <c r="F257" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>235</v>
-      </c>
-      <c r="B258" t="s">
-        <v>371</v>
-      </c>
-      <c r="C258" t="s">
-        <v>370</v>
-      </c>
-      <c r="D258" t="s">
-        <v>13</v>
-      </c>
-      <c r="F258" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>235</v>
-      </c>
       <c r="B259" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C259" t="s">
-        <v>372</v>
+        <v>2788</v>
       </c>
       <c r="D259" t="s">
         <v>13</v>
       </c>
-      <c r="F259" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>235</v>
-      </c>
-      <c r="B260" t="s">
-        <v>375</v>
-      </c>
-      <c r="C260" t="s">
-        <v>374</v>
-      </c>
-      <c r="D260" t="s">
-        <v>13</v>
-      </c>
-      <c r="F260" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>235</v>
-      </c>
-      <c r="B261" t="s">
-        <v>377</v>
-      </c>
-      <c r="C261" t="s">
-        <v>376</v>
-      </c>
-      <c r="D261" t="s">
-        <v>13</v>
-      </c>
-      <c r="F261" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="I259" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B261" s="20" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C261" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F261" s="20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>235</v>
       </c>
       <c r="B262" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="C262" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D262" t="s">
         <v>13</v>
       </c>
-      <c r="F262" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>235</v>
       </c>
       <c r="B263" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="C263" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D263" t="s">
         <v>13</v>
       </c>
-      <c r="F263" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>235</v>
-      </c>
-      <c r="B264" t="s">
-        <v>385</v>
-      </c>
-      <c r="C264" t="s">
-        <v>382</v>
-      </c>
-      <c r="D264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="C265" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D265" t="s">
         <v>13</v>
       </c>
-      <c r="F265" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>235</v>
       </c>
       <c r="B266" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C266" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
       <c r="D266" t="s">
         <v>13</v>
@@ -12395,15 +12340,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>235</v>
       </c>
       <c r="B267" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="C267" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="D267" t="s">
         <v>13</v>
@@ -12412,15 +12357,15 @@
         <v>392</v>
       </c>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B268" t="s">
-        <v>388</v>
+        <v>371</v>
       </c>
       <c r="C268" t="s">
-        <v>391</v>
+        <v>370</v>
       </c>
       <c r="D268" t="s">
         <v>13</v>
@@ -12429,82 +12374,140 @@
         <v>392</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A269" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B269" s="21" t="s">
-        <v>2788</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A270" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B270" s="9" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A272" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B272" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="C272" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F272" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H272" s="13" t="s">
-        <v>49</v>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>235</v>
+      </c>
+      <c r="B269" t="s">
+        <v>373</v>
+      </c>
+      <c r="C269" t="s">
+        <v>372</v>
+      </c>
+      <c r="D269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>235</v>
+      </c>
+      <c r="B270" t="s">
+        <v>375</v>
+      </c>
+      <c r="C270" t="s">
+        <v>374</v>
+      </c>
+      <c r="D270" t="s">
+        <v>13</v>
+      </c>
+      <c r="F270" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271" t="s">
+        <v>377</v>
+      </c>
+      <c r="C271" t="s">
+        <v>376</v>
+      </c>
+      <c r="D271" t="s">
+        <v>13</v>
+      </c>
+      <c r="F271" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>235</v>
+      </c>
+      <c r="B272" t="s">
+        <v>379</v>
+      </c>
+      <c r="C272" t="s">
+        <v>378</v>
+      </c>
+      <c r="D272" t="s">
+        <v>13</v>
+      </c>
+      <c r="F272" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B273" t="s">
-        <v>393</v>
+        <v>381</v>
       </c>
       <c r="C273" t="s">
-        <v>2796</v>
+        <v>380</v>
       </c>
       <c r="D273" t="s">
         <v>13</v>
       </c>
-      <c r="I273" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="275" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A275" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B275" s="21" t="s">
-        <v>2789</v>
-      </c>
-      <c r="C275" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F275" s="21" t="s">
-        <v>395</v>
+      <c r="F273" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>235</v>
+      </c>
+      <c r="B274" t="s">
+        <v>385</v>
+      </c>
+      <c r="C274" t="s">
+        <v>382</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="F274" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>235</v>
+      </c>
+      <c r="B275" t="s">
+        <v>384</v>
+      </c>
+      <c r="C275" t="s">
+        <v>383</v>
+      </c>
+      <c r="D275" t="s">
+        <v>13</v>
+      </c>
+      <c r="F275" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B276" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C276" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="D276" t="s">
         <v>13</v>
+      </c>
+      <c r="F276" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.35">
@@ -12512,447 +12515,447 @@
         <v>235</v>
       </c>
       <c r="B277" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="C277" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D277" t="s">
         <v>13</v>
       </c>
       <c r="F277" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B278" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C278" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D278" t="s">
         <v>13</v>
       </c>
       <c r="F278" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>235</v>
-      </c>
-      <c r="B279" t="s">
-        <v>403</v>
-      </c>
-      <c r="C279" t="s">
-        <v>402</v>
-      </c>
-      <c r="D279" t="s">
-        <v>13</v>
-      </c>
-      <c r="F279" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>235</v>
-      </c>
-      <c r="B280" t="s">
-        <v>405</v>
-      </c>
-      <c r="C280" t="s">
-        <v>404</v>
-      </c>
-      <c r="D280" t="s">
-        <v>13</v>
-      </c>
-      <c r="F280" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>235</v>
-      </c>
-      <c r="B281" t="s">
-        <v>407</v>
-      </c>
-      <c r="C281" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="D281" t="s">
-        <v>13</v>
-      </c>
-      <c r="F281" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>235</v>
-      </c>
-      <c r="B282" t="s">
-        <v>409</v>
-      </c>
-      <c r="C282" t="s">
-        <v>408</v>
-      </c>
-      <c r="D282" t="s">
-        <v>13</v>
-      </c>
-      <c r="F282" t="s">
-        <v>414</v>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B279" s="20" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B280" s="9" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B282" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C282" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H282" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B283" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="C283" t="s">
-        <v>410</v>
+        <v>2787</v>
       </c>
       <c r="D283" t="s">
         <v>13</v>
       </c>
-      <c r="F283" t="s">
+      <c r="I283" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B285" s="20" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C285" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F285" s="20" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>48</v>
+      </c>
+      <c r="B286" t="s">
+        <v>396</v>
+      </c>
+      <c r="C286" t="s">
+        <v>397</v>
+      </c>
+      <c r="D286" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>235</v>
+      </c>
+      <c r="B287" t="s">
+        <v>399</v>
+      </c>
+      <c r="C287" t="s">
+        <v>398</v>
+      </c>
+      <c r="D287" t="s">
+        <v>13</v>
+      </c>
+      <c r="F287" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>57</v>
-      </c>
-      <c r="B284" t="s">
-        <v>413</v>
-      </c>
-      <c r="C284" t="s">
-        <v>412</v>
-      </c>
-      <c r="D284" t="s">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>235</v>
+      </c>
+      <c r="B288" t="s">
+        <v>401</v>
+      </c>
+      <c r="C288" t="s">
+        <v>400</v>
+      </c>
+      <c r="D288" t="s">
         <v>13</v>
       </c>
-      <c r="F284" t="s">
+      <c r="F288" t="s">
         <v>414</v>
-      </c>
-    </row>
-    <row r="285" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A285" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B285" s="21" t="s">
-        <v>2789</v>
-      </c>
-    </row>
-    <row r="286" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B286" s="9" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A288" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B288" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="C288" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F288" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H288" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B289" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="C289" t="s">
-        <v>2795</v>
+        <v>402</v>
       </c>
       <c r="D289" t="s">
         <v>13</v>
       </c>
-      <c r="I289" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="291" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B291" s="21" t="s">
-        <v>2790</v>
-      </c>
-      <c r="C291" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F291" s="21" t="s">
-        <v>416</v>
+      <c r="F289" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>235</v>
+      </c>
+      <c r="B290" t="s">
+        <v>405</v>
+      </c>
+      <c r="C290" t="s">
+        <v>404</v>
+      </c>
+      <c r="D290" t="s">
+        <v>13</v>
+      </c>
+      <c r="F290" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>235</v>
+      </c>
+      <c r="B291" t="s">
+        <v>407</v>
+      </c>
+      <c r="C291" s="14" t="s">
+        <v>406</v>
+      </c>
+      <c r="D291" t="s">
+        <v>13</v>
+      </c>
+      <c r="F291" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B292" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C292" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
       <c r="D292" t="s">
         <v>13</v>
       </c>
+      <c r="F292" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
-        <v>47</v>
+        <v>235</v>
       </c>
       <c r="B293" t="s">
-        <v>457</v>
+        <v>411</v>
       </c>
       <c r="C293" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="D293" t="s">
         <v>13</v>
       </c>
       <c r="F293" t="s">
-        <v>425</v>
-      </c>
-      <c r="J293" t="s">
-        <v>2599</v>
+        <v>414</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
-        <v>534</v>
+        <v>57</v>
       </c>
       <c r="B294" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C294" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="D294" t="s">
         <v>13</v>
       </c>
       <c r="F294" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>423</v>
-      </c>
-      <c r="B295" t="s">
-        <v>421</v>
-      </c>
-      <c r="C295" t="s">
-        <v>422</v>
-      </c>
-      <c r="D295" t="s">
-        <v>13</v>
-      </c>
-      <c r="F295" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A297" t="s">
-        <v>426</v>
-      </c>
-      <c r="B297" t="s">
-        <v>427</v>
-      </c>
-      <c r="C297" t="s">
-        <v>453</v>
-      </c>
-      <c r="D297" t="s">
-        <v>13</v>
-      </c>
-      <c r="F297" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A298" t="s">
-        <v>57</v>
-      </c>
-      <c r="B298" t="s">
-        <v>452</v>
-      </c>
-      <c r="C298" t="s">
-        <v>550</v>
-      </c>
-      <c r="D298" t="s">
-        <v>13</v>
-      </c>
-      <c r="F298" t="s">
-        <v>454</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B295" s="20" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B296" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B298" s="13" t="s">
+        <v>435</v>
+      </c>
+      <c r="C298" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H298" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B299" t="s">
-        <v>428</v>
+        <v>415</v>
       </c>
       <c r="C299" t="s">
-        <v>429</v>
+        <v>2786</v>
       </c>
       <c r="D299" t="s">
         <v>13</v>
       </c>
-      <c r="F299" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A300" t="s">
-        <v>235</v>
-      </c>
-      <c r="B300" t="s">
-        <v>431</v>
-      </c>
-      <c r="C300" t="s">
-        <v>430</v>
-      </c>
-      <c r="D300" t="s">
-        <v>13</v>
-      </c>
-      <c r="F300" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A301" t="s">
-        <v>235</v>
-      </c>
-      <c r="B301" t="s">
-        <v>433</v>
-      </c>
-      <c r="C301" t="s">
-        <v>432</v>
-      </c>
-      <c r="D301" t="s">
-        <v>13</v>
-      </c>
-      <c r="F301" t="s">
-        <v>425</v>
+      <c r="I299" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B301" s="20" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C301" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F301" s="20" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B302" t="s">
-        <v>322</v>
+        <v>417</v>
       </c>
       <c r="C302" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="D302" t="s">
         <v>13</v>
       </c>
-      <c r="F302" t="s">
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>47</v>
+      </c>
+      <c r="B303" t="s">
+        <v>457</v>
+      </c>
+      <c r="C303" t="s">
+        <v>418</v>
+      </c>
+      <c r="D303" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="303" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A303" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B303" s="21" t="s">
-        <v>2790</v>
-      </c>
-    </row>
-    <row r="304" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A304" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="306" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A306" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B306" s="13" t="s">
-        <v>457</v>
-      </c>
-      <c r="C306" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F306" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H306" s="13" t="s">
-        <v>49</v>
+      <c r="J303" t="s">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A304" t="s">
+        <v>534</v>
+      </c>
+      <c r="B304" t="s">
+        <v>419</v>
+      </c>
+      <c r="C304" t="s">
+        <v>420</v>
+      </c>
+      <c r="D304" t="s">
+        <v>13</v>
+      </c>
+      <c r="F304" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>423</v>
+      </c>
+      <c r="B305" t="s">
+        <v>421</v>
+      </c>
+      <c r="C305" t="s">
+        <v>422</v>
+      </c>
+      <c r="D305" t="s">
+        <v>13</v>
+      </c>
+      <c r="F305" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
-        <v>48</v>
+        <v>426</v>
       </c>
       <c r="B307" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="C307" t="s">
-        <v>2802</v>
+        <v>453</v>
       </c>
       <c r="D307" t="s">
         <v>13</v>
       </c>
-      <c r="I307" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="309" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A309" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B309" s="21" t="s">
-        <v>2791</v>
-      </c>
-      <c r="C309" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F309" s="21" t="s">
-        <v>456</v>
+      <c r="F307" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>57</v>
+      </c>
+      <c r="B308" t="s">
+        <v>452</v>
+      </c>
+      <c r="C308" t="s">
+        <v>550</v>
+      </c>
+      <c r="D308" t="s">
+        <v>13</v>
+      </c>
+      <c r="F308" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A309" t="s">
+        <v>235</v>
+      </c>
+      <c r="B309" t="s">
+        <v>428</v>
+      </c>
+      <c r="C309" t="s">
+        <v>429</v>
+      </c>
+      <c r="D309" t="s">
+        <v>13</v>
+      </c>
+      <c r="F309" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B310" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
       <c r="C310" t="s">
-        <v>459</v>
+        <v>430</v>
       </c>
       <c r="D310" t="s">
         <v>13</v>
+      </c>
+      <c r="F310" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
@@ -12960,233 +12963,230 @@
         <v>235</v>
       </c>
       <c r="B311" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C311" t="s">
-        <v>461</v>
+        <v>432</v>
       </c>
       <c r="D311" t="s">
         <v>13</v>
       </c>
       <c r="F311" t="s">
-        <v>460</v>
+        <v>425</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B312" t="s">
-        <v>464</v>
+        <v>322</v>
       </c>
       <c r="C312" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="D312" t="s">
         <v>13</v>
       </c>
       <c r="F312" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" t="s">
-        <v>235</v>
-      </c>
-      <c r="B313" t="s">
-        <v>465</v>
-      </c>
-      <c r="C313" t="s">
-        <v>466</v>
-      </c>
-      <c r="D313" t="s">
-        <v>13</v>
-      </c>
-      <c r="F313" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A314" t="s">
-        <v>235</v>
-      </c>
-      <c r="B314" t="s">
-        <v>467</v>
-      </c>
-      <c r="C314" t="s">
-        <v>468</v>
-      </c>
-      <c r="D314" t="s">
-        <v>13</v>
-      </c>
-      <c r="F314" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" t="s">
-        <v>235</v>
-      </c>
-      <c r="B315" t="s">
-        <v>470</v>
-      </c>
-      <c r="C315" t="s">
-        <v>469</v>
-      </c>
-      <c r="D315" t="s">
-        <v>13</v>
-      </c>
-      <c r="F315" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" t="s">
-        <v>235</v>
-      </c>
-      <c r="B316" t="s">
-        <v>471</v>
-      </c>
-      <c r="C316" t="s">
-        <v>119</v>
-      </c>
-      <c r="D316" t="s">
-        <v>13</v>
-      </c>
-      <c r="F316" t="s">
-        <v>460</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B313" s="20" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B314" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="C316" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F316" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H316" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B317" t="s">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="C317" t="s">
-        <v>472</v>
+        <v>2793</v>
       </c>
       <c r="D317" t="s">
         <v>13</v>
       </c>
-      <c r="F317" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A318" t="s">
-        <v>235</v>
-      </c>
-      <c r="B318" t="s">
-        <v>475</v>
-      </c>
-      <c r="C318" t="s">
-        <v>474</v>
-      </c>
-      <c r="D318" t="s">
-        <v>13</v>
-      </c>
-      <c r="F318" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A319" t="s">
-        <v>235</v>
-      </c>
-      <c r="B319" t="s">
-        <v>477</v>
-      </c>
-      <c r="C319" t="s">
-        <v>476</v>
-      </c>
-      <c r="D319" t="s">
-        <v>13</v>
-      </c>
-      <c r="F319" t="s">
-        <v>460</v>
+      <c r="I317" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B319" s="20" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C319" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F319" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B320" t="s">
-        <v>479</v>
+        <v>458</v>
       </c>
       <c r="C320" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D320" t="s">
         <v>13</v>
       </c>
-      <c r="F320" t="s">
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A321" t="s">
+        <v>235</v>
+      </c>
+      <c r="B321" t="s">
+        <v>462</v>
+      </c>
+      <c r="C321" t="s">
+        <v>461</v>
+      </c>
+      <c r="D321" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A321" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B321" s="21" t="s">
-        <v>2791</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A322" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="324" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A324" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B324" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="C324" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F324" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H324" s="13" t="s">
-        <v>49</v>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>235</v>
+      </c>
+      <c r="B322" t="s">
+        <v>464</v>
+      </c>
+      <c r="C322" t="s">
+        <v>463</v>
+      </c>
+      <c r="D322" t="s">
+        <v>13</v>
+      </c>
+      <c r="F322" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>235</v>
+      </c>
+      <c r="B323" t="s">
+        <v>465</v>
+      </c>
+      <c r="C323" t="s">
+        <v>466</v>
+      </c>
+      <c r="D323" t="s">
+        <v>13</v>
+      </c>
+      <c r="F323" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A324" t="s">
+        <v>235</v>
+      </c>
+      <c r="B324" t="s">
+        <v>467</v>
+      </c>
+      <c r="C324" t="s">
+        <v>468</v>
+      </c>
+      <c r="D324" t="s">
+        <v>13</v>
+      </c>
+      <c r="F324" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B325" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="C325" t="s">
-        <v>2801</v>
+        <v>469</v>
       </c>
       <c r="D325" t="s">
         <v>13</v>
       </c>
-      <c r="I325" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B327" s="21" t="s">
-        <v>2792</v>
-      </c>
-      <c r="C327" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F327" s="21" t="s">
-        <v>498</v>
+      <c r="F325" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>235</v>
+      </c>
+      <c r="B326" t="s">
+        <v>471</v>
+      </c>
+      <c r="C326" t="s">
+        <v>119</v>
+      </c>
+      <c r="D326" t="s">
+        <v>13</v>
+      </c>
+      <c r="F326" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A327" t="s">
+        <v>235</v>
+      </c>
+      <c r="B327" t="s">
+        <v>473</v>
+      </c>
+      <c r="C327" t="s">
+        <v>472</v>
+      </c>
+      <c r="D327" t="s">
+        <v>13</v>
+      </c>
+      <c r="F327" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.35">
@@ -13194,193 +13194,193 @@
         <v>235</v>
       </c>
       <c r="B328" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C328" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="D328" t="s">
         <v>13</v>
       </c>
+      <c r="F328" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>235</v>
+      </c>
+      <c r="B329" t="s">
+        <v>477</v>
+      </c>
+      <c r="C329" t="s">
+        <v>476</v>
+      </c>
+      <c r="D329" t="s">
+        <v>13</v>
+      </c>
+      <c r="F329" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B330" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C330" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D330" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A331" t="s">
-        <v>235</v>
-      </c>
-      <c r="B331" t="s">
-        <v>487</v>
-      </c>
-      <c r="C331" t="s">
-        <v>486</v>
-      </c>
-      <c r="D331" t="s">
-        <v>13</v>
-      </c>
-      <c r="F331" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A332" t="s">
-        <v>235</v>
-      </c>
-      <c r="B332" t="s">
-        <v>489</v>
-      </c>
-      <c r="C332" t="s">
-        <v>488</v>
-      </c>
-      <c r="D332" t="s">
-        <v>13</v>
-      </c>
-      <c r="F332" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A333" t="s">
-        <v>235</v>
-      </c>
-      <c r="B333" t="s">
-        <v>493</v>
-      </c>
-      <c r="C333" t="s">
-        <v>490</v>
-      </c>
-      <c r="D333" t="s">
-        <v>13</v>
-      </c>
-      <c r="F333" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A334" t="s">
-        <v>235</v>
-      </c>
-      <c r="B334" t="s">
-        <v>492</v>
-      </c>
-      <c r="C334" t="s">
-        <v>491</v>
-      </c>
-      <c r="D334" t="s">
-        <v>13</v>
-      </c>
-      <c r="F334" t="s">
-        <v>497</v>
+      <c r="F330" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B331" s="20" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B332" s="9" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B334" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="C334" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F334" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H334" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="B335" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="C335" t="s">
-        <v>494</v>
+        <v>2792</v>
       </c>
       <c r="D335" t="s">
         <v>13</v>
       </c>
-      <c r="F335" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A336" t="s">
-        <v>57</v>
-      </c>
-      <c r="B336" t="s">
-        <v>479</v>
-      </c>
-      <c r="C336" t="s">
-        <v>496</v>
-      </c>
-      <c r="D336" t="s">
+      <c r="I335" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B337" s="20" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C337" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F337" s="20" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A338" t="s">
+        <v>235</v>
+      </c>
+      <c r="B338" t="s">
+        <v>482</v>
+      </c>
+      <c r="C338" t="s">
+        <v>483</v>
+      </c>
+      <c r="D338" t="s">
         <v>13</v>
       </c>
-      <c r="F336" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="337" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A337" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B337" s="21" t="s">
-        <v>2792</v>
-      </c>
-    </row>
-    <row r="338" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B338" s="9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B340" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="C340" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F340" s="13" t="s">
-        <v>2624</v>
-      </c>
-      <c r="H340" s="13" t="s">
-        <v>49</v>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A340" t="s">
+        <v>48</v>
+      </c>
+      <c r="B340" t="s">
+        <v>485</v>
+      </c>
+      <c r="C340" t="s">
+        <v>484</v>
+      </c>
+      <c r="D340" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
-        <v>48</v>
+        <v>235</v>
       </c>
       <c r="B341" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="C341" t="s">
-        <v>2800</v>
+        <v>486</v>
       </c>
       <c r="D341" t="s">
         <v>13</v>
       </c>
-      <c r="I341" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="343" spans="1:9" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A343" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B343" s="21" t="s">
-        <v>2793</v>
-      </c>
-      <c r="C343" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="F343" s="21" t="s">
-        <v>500</v>
+      <c r="F341" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A342" t="s">
+        <v>235</v>
+      </c>
+      <c r="B342" t="s">
+        <v>489</v>
+      </c>
+      <c r="C342" t="s">
+        <v>488</v>
+      </c>
+      <c r="D342" t="s">
+        <v>13</v>
+      </c>
+      <c r="F342" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>235</v>
+      </c>
+      <c r="B343" t="s">
+        <v>493</v>
+      </c>
+      <c r="C343" t="s">
+        <v>490</v>
+      </c>
+      <c r="D343" t="s">
+        <v>13</v>
+      </c>
+      <c r="F343" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.35">
@@ -13388,359 +13388,474 @@
         <v>235</v>
       </c>
       <c r="B344" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="C344" t="s">
-        <v>502</v>
+        <v>491</v>
       </c>
       <c r="D344" t="s">
         <v>13</v>
       </c>
+      <c r="F344" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
-        <v>534</v>
+        <v>235</v>
       </c>
       <c r="B345" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C345" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="D345" t="s">
         <v>13</v>
       </c>
       <c r="F345" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
-        <v>235</v>
+        <v>57</v>
       </c>
       <c r="B346" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C346" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="D346" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A347" t="s">
-        <v>235</v>
-      </c>
-      <c r="B347" t="s">
-        <v>512</v>
-      </c>
-      <c r="C347" t="s">
-        <v>508</v>
-      </c>
-      <c r="D347" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A348" t="s">
-        <v>235</v>
-      </c>
-      <c r="B348" t="s">
-        <v>510</v>
-      </c>
-      <c r="C348" t="s">
-        <v>511</v>
-      </c>
-      <c r="D348" t="s">
-        <v>13</v>
-      </c>
-      <c r="F348" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A349" t="s">
-        <v>57</v>
-      </c>
-      <c r="B349" t="s">
-        <v>514</v>
-      </c>
-      <c r="C349" t="s">
-        <v>532</v>
-      </c>
-      <c r="D349" t="s">
-        <v>13</v>
-      </c>
-      <c r="F349" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A350" t="s">
-        <v>235</v>
-      </c>
-      <c r="B350" t="s">
-        <v>517</v>
-      </c>
-      <c r="C350" t="s">
-        <v>516</v>
-      </c>
-      <c r="D350" t="s">
-        <v>13</v>
-      </c>
-      <c r="F350" t="s">
-        <v>513</v>
+      <c r="F346" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B347" s="20" t="s">
+        <v>2783</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B350" s="13" t="s">
+        <v>509</v>
+      </c>
+      <c r="C350" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F350" s="13" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H350" s="13" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B351" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="C351" t="s">
-        <v>531</v>
+        <v>2791</v>
       </c>
       <c r="D351" t="s">
         <v>13</v>
       </c>
-      <c r="F351" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A352" t="s">
-        <v>235</v>
-      </c>
-      <c r="B352" t="s">
-        <v>521</v>
-      </c>
-      <c r="C352" t="s">
-        <v>520</v>
-      </c>
-      <c r="D352" t="s">
-        <v>13</v>
-      </c>
-      <c r="F352" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A353" t="s">
-        <v>57</v>
-      </c>
-      <c r="B353" t="s">
-        <v>522</v>
-      </c>
-      <c r="C353" t="s">
-        <v>530</v>
-      </c>
-      <c r="D353" t="s">
-        <v>13</v>
-      </c>
-      <c r="F353" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="I351" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B353" s="20" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C353" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F353" s="20" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>235</v>
       </c>
       <c r="B354" t="s">
-        <v>524</v>
+        <v>501</v>
       </c>
       <c r="C354" t="s">
-        <v>525</v>
+        <v>502</v>
       </c>
       <c r="D354" t="s">
         <v>13</v>
       </c>
-      <c r="F354" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.35">
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="B355" t="s">
-        <v>526</v>
+        <v>503</v>
       </c>
       <c r="C355" t="s">
-        <v>527</v>
+        <v>504</v>
       </c>
       <c r="D355" t="s">
         <v>13</v>
       </c>
       <c r="F355" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.35">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>57</v>
+        <v>235</v>
       </c>
       <c r="B356" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C356" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D356" t="s">
         <v>13</v>
       </c>
-      <c r="F356" t="s">
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>235</v>
+      </c>
+      <c r="B357" t="s">
+        <v>512</v>
+      </c>
+      <c r="C357" t="s">
+        <v>508</v>
+      </c>
+      <c r="D357" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A358" t="s">
+        <v>235</v>
+      </c>
+      <c r="B358" t="s">
+        <v>510</v>
+      </c>
+      <c r="C358" t="s">
+        <v>511</v>
+      </c>
+      <c r="D358" t="s">
+        <v>13</v>
+      </c>
+      <c r="F358" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="357" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="21" t="s">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>57</v>
+      </c>
+      <c r="B359" t="s">
+        <v>514</v>
+      </c>
+      <c r="C359" t="s">
+        <v>532</v>
+      </c>
+      <c r="D359" t="s">
+        <v>13</v>
+      </c>
+      <c r="F359" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A360" t="s">
+        <v>235</v>
+      </c>
+      <c r="B360" t="s">
+        <v>517</v>
+      </c>
+      <c r="C360" t="s">
+        <v>516</v>
+      </c>
+      <c r="D360" t="s">
+        <v>13</v>
+      </c>
+      <c r="F360" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A361" t="s">
+        <v>57</v>
+      </c>
+      <c r="B361" t="s">
+        <v>518</v>
+      </c>
+      <c r="C361" t="s">
+        <v>531</v>
+      </c>
+      <c r="D361" t="s">
+        <v>13</v>
+      </c>
+      <c r="F361" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>235</v>
+      </c>
+      <c r="B362" t="s">
+        <v>521</v>
+      </c>
+      <c r="C362" t="s">
+        <v>520</v>
+      </c>
+      <c r="D362" t="s">
+        <v>13</v>
+      </c>
+      <c r="F362" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>57</v>
+      </c>
+      <c r="B363" t="s">
+        <v>522</v>
+      </c>
+      <c r="C363" t="s">
+        <v>530</v>
+      </c>
+      <c r="D363" t="s">
+        <v>13</v>
+      </c>
+      <c r="F363" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A364" t="s">
+        <v>235</v>
+      </c>
+      <c r="B364" t="s">
+        <v>524</v>
+      </c>
+      <c r="C364" t="s">
+        <v>525</v>
+      </c>
+      <c r="D364" t="s">
+        <v>13</v>
+      </c>
+      <c r="F364" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A365" t="s">
+        <v>546</v>
+      </c>
+      <c r="B365" t="s">
+        <v>526</v>
+      </c>
+      <c r="C365" t="s">
+        <v>527</v>
+      </c>
+      <c r="D365" t="s">
+        <v>13</v>
+      </c>
+      <c r="F365" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>57</v>
+      </c>
+      <c r="B366" t="s">
+        <v>528</v>
+      </c>
+      <c r="C366" t="s">
+        <v>529</v>
+      </c>
+      <c r="D366" t="s">
+        <v>13</v>
+      </c>
+      <c r="F366" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="B357" s="21" t="s">
-        <v>2793</v>
-      </c>
-    </row>
-    <row r="358" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A358" s="9" t="s">
+      <c r="B367" s="20" t="s">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B358" s="9" t="s">
+      <c r="B368" s="9" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="360" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A360" s="13" t="s">
+    <row r="370" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B360" s="13" t="s">
-        <v>2664</v>
-      </c>
-      <c r="C360" s="13" t="s">
+      <c r="B370" s="13" t="s">
+        <v>2656</v>
+      </c>
+      <c r="C370" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H360" s="13" t="s">
+      <c r="H370" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="361" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="12" t="s">
+    <row r="371" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="12" t="s">
         <v>2510</v>
       </c>
-      <c r="B361" s="12" t="s">
+      <c r="B371" s="12" t="s">
         <v>2509</v>
       </c>
-      <c r="C361" s="12" t="s">
+      <c r="C371" s="12" t="s">
         <v>2508</v>
       </c>
-      <c r="D361" s="12" t="s">
+      <c r="D371" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I361" s="12" t="s">
+      <c r="I371" s="12" t="s">
         <v>2512</v>
       </c>
-      <c r="M361" s="12" t="s">
-        <v>2773</v>
-      </c>
-    </row>
-    <row r="362" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A362" s="12" t="s">
+      <c r="M371" s="12" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="372" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A372" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B362" s="12" t="s">
+      <c r="B372" s="12" t="s">
         <v>2515</v>
       </c>
-      <c r="C362" s="12" t="s">
+      <c r="C372" s="12" t="s">
         <v>2501</v>
       </c>
-      <c r="D362" s="12" t="s">
+      <c r="D372" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F362" s="12" t="s">
+      <c r="F372" s="12" t="s">
         <v>2518</v>
       </c>
-      <c r="M362" s="12" t="s">
+      <c r="M372" s="12" t="s">
         <v>2548</v>
       </c>
     </row>
-    <row r="363" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A363" s="12" t="s">
-        <v>2657</v>
-      </c>
-      <c r="B363" s="12" t="s">
+    <row r="373" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A373" s="12" t="s">
+        <v>2649</v>
+      </c>
+      <c r="B373" s="12" t="s">
         <v>2516</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="C373" s="12" t="s">
         <v>2517</v>
       </c>
-      <c r="D363" s="12" t="s">
+      <c r="D373" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F363" s="12" t="s">
+      <c r="F373" s="12" t="s">
         <v>2518</v>
       </c>
-      <c r="H363" s="12" t="s">
-        <v>2658</v>
-      </c>
-    </row>
-    <row r="364" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A364" s="13" t="s">
+      <c r="H373" s="12" t="s">
+        <v>2650</v>
+      </c>
+    </row>
+    <row r="374" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A374" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B364" s="13" t="s">
-        <v>2664</v>
-      </c>
-    </row>
-    <row r="366" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A366" s="13" t="s">
+      <c r="B374" s="13" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="376" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A376" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B366" s="13" t="s">
-        <v>2783</v>
-      </c>
-      <c r="C366" s="13" t="s">
+      <c r="B376" s="13" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C376" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H366" s="13" t="s">
+      <c r="H376" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="367" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="12" t="s">
+    <row r="377" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A377" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B367" s="12" t="s">
-        <v>2659</v>
-      </c>
-      <c r="C367" s="12" t="s">
-        <v>2661</v>
-      </c>
-      <c r="G367" s="12" t="s">
+      <c r="B377" s="12" t="s">
+        <v>2651</v>
+      </c>
+      <c r="C377" s="12" t="s">
+        <v>2653</v>
+      </c>
+      <c r="G377" s="12" t="s">
         <v>2543</v>
       </c>
     </row>
-    <row r="368" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="12" t="s">
+    <row r="378" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A378" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B368" s="12" t="s">
-        <v>2660</v>
-      </c>
-      <c r="C368" s="12" t="s">
-        <v>2662</v>
-      </c>
-      <c r="G368" s="12" t="s">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="369" spans="1:2" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A369" s="13" t="s">
+      <c r="B378" s="12" t="s">
+        <v>2652</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="379" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A379" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B369" s="13" t="s">
-        <v>2783</v>
+      <c r="B379" s="13" t="s">
+        <v>2774</v>
       </c>
     </row>
   </sheetData>
@@ -14099,10 +14214,10 @@
         <v>2461</v>
       </c>
       <c r="B39" t="s">
-        <v>2674</v>
+        <v>2666</v>
       </c>
       <c r="C39" t="s">
-        <v>2673</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
@@ -14311,12 +14426,12 @@
         <v>2513</v>
       </c>
       <c r="C60" t="s">
-        <v>2774</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B62" t="s">
         <v>2520</v>
@@ -14327,7 +14442,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B63" t="s">
         <v>2521</v>
@@ -14338,7 +14453,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B64" t="s">
         <v>2522</v>
@@ -14349,7 +14464,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B65" t="s">
         <v>2523</v>
@@ -14360,7 +14475,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B66" t="s">
         <v>2524</v>
@@ -14371,7 +14486,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B67" t="s">
         <v>2525</v>
@@ -14382,7 +14497,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B68" t="s">
         <v>2526</v>
@@ -14393,7 +14508,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B69" t="s">
         <v>2527</v>
@@ -14404,7 +14519,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B70" t="s">
         <v>2528</v>
@@ -14415,7 +14530,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B71" t="s">
         <v>2529</v>
@@ -14426,7 +14541,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B72" t="s">
         <v>2530</v>
@@ -14437,7 +14552,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B73" t="s">
         <v>2531</v>
@@ -14448,7 +14563,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>2656</v>
+        <v>2648</v>
       </c>
       <c r="B74" t="s">
         <v>2532</v>
@@ -14701,7 +14816,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
       <c r="B103" t="s">
         <v>2537</v>
@@ -14712,7 +14827,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
       <c r="B104" t="s">
         <v>2536</v>
@@ -14723,7 +14838,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>2682</v>
+        <v>2674</v>
       </c>
       <c r="B105" t="s">
         <v>247</v>
@@ -14742,7 +14857,7 @@
       <c r="C107">
         <v>1</v>
       </c>
-      <c r="H107" s="19"/>
+      <c r="H107" s="18"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
@@ -14754,7 +14869,7 @@
       <c r="C108">
         <v>2</v>
       </c>
-      <c r="H108" s="19"/>
+      <c r="H108" s="18"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
@@ -14769,18 +14884,18 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B111" t="s">
-        <v>2653</v>
+        <v>2645</v>
       </c>
       <c r="C111" t="s">
-        <v>2637</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B112" t="s">
         <v>44</v>
@@ -14791,7 +14906,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B113" t="s">
         <v>45</v>
@@ -14802,40 +14917,40 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B114" t="s">
-        <v>2651</v>
+        <v>2643</v>
       </c>
       <c r="C114" t="s">
-        <v>2638</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B115" t="s">
-        <v>2652</v>
+        <v>2644</v>
       </c>
       <c r="C115" t="s">
-        <v>2639</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B116" t="s">
-        <v>2650</v>
+        <v>2642</v>
       </c>
       <c r="C116" t="s">
-        <v>2640</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B117" t="s">
         <v>50</v>
@@ -14846,54 +14961,54 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B118" t="s">
-        <v>2649</v>
+        <v>2641</v>
       </c>
       <c r="C118" t="s">
-        <v>2641</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B119" t="s">
-        <v>2648</v>
+        <v>2640</v>
       </c>
       <c r="C119" t="s">
-        <v>2642</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B120" t="s">
-        <v>2647</v>
+        <v>2639</v>
       </c>
       <c r="C120" t="s">
-        <v>2643</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B121" t="s">
-        <v>2646</v>
+        <v>2638</v>
       </c>
       <c r="C121" t="s">
-        <v>2645</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B122" t="s">
-        <v>2644</v>
+        <v>2636</v>
       </c>
       <c r="C122" t="s">
         <v>398</v>
@@ -14901,7 +15016,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>2665</v>
+        <v>2657</v>
       </c>
       <c r="B123" t="s">
         <v>247</v>
@@ -15154,10 +15269,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B152" t="s">
-        <v>2758</v>
+        <v>2749</v>
       </c>
       <c r="C152" t="s">
         <v>502</v>
@@ -15165,112 +15280,112 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B153" t="s">
-        <v>2761</v>
+        <v>2752</v>
       </c>
       <c r="C153" t="s">
-        <v>2748</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B154" t="s">
-        <v>2762</v>
+        <v>2753</v>
       </c>
       <c r="C154" t="s">
-        <v>2749</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B155" t="s">
-        <v>2763</v>
+        <v>2754</v>
       </c>
       <c r="C155" t="s">
-        <v>2750</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>2733</v>
+      </c>
+      <c r="B156" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C156" t="s">
         <v>2742</v>
-      </c>
-      <c r="B156" t="s">
-        <v>2759</v>
-      </c>
-      <c r="C156" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B157" t="s">
-        <v>2764</v>
+        <v>2755</v>
       </c>
       <c r="C157" t="s">
-        <v>2752</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B158" t="s">
-        <v>2765</v>
+        <v>2756</v>
       </c>
       <c r="C158" t="s">
-        <v>2753</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B159" t="s">
-        <v>2766</v>
+        <v>2757</v>
       </c>
       <c r="C159" t="s">
-        <v>2754</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B160" t="s">
-        <v>2767</v>
+        <v>2758</v>
       </c>
       <c r="C160" t="s">
-        <v>2755</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B161" t="s">
-        <v>2760</v>
+        <v>2751</v>
       </c>
       <c r="C161" t="s">
-        <v>2756</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>2742</v>
+        <v>2733</v>
       </c>
       <c r="B162" t="s">
         <v>247</v>
       </c>
       <c r="C162" t="s">
-        <v>2757</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.35">
@@ -15432,10 +15547,10 @@
         <v>99</v>
       </c>
       <c r="B178" t="s">
-        <v>2692</v>
+        <v>2684</v>
       </c>
       <c r="C178" t="s">
-        <v>2693</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.35">
@@ -15443,10 +15558,10 @@
         <v>99</v>
       </c>
       <c r="B179" t="s">
-        <v>2695</v>
+        <v>2687</v>
       </c>
       <c r="C179" t="s">
-        <v>2694</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.35">
@@ -15454,10 +15569,10 @@
         <v>99</v>
       </c>
       <c r="B180" t="s">
-        <v>2697</v>
+        <v>2689</v>
       </c>
       <c r="C180" t="s">
-        <v>2698</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.35">
@@ -15465,10 +15580,10 @@
         <v>99</v>
       </c>
       <c r="B181" t="s">
-        <v>2703</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>2704</v>
+        <v>2695</v>
+      </c>
+      <c r="C181" s="19" t="s">
+        <v>2696</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.35">
@@ -15476,9 +15591,9 @@
         <v>99</v>
       </c>
       <c r="B182" t="s">
-        <v>2705</v>
-      </c>
-      <c r="C182" s="20" t="s">
+        <v>2697</v>
+      </c>
+      <c r="C182" s="19" t="s">
         <v>486</v>
       </c>
     </row>
@@ -15487,10 +15602,10 @@
         <v>99</v>
       </c>
       <c r="B183" t="s">
-        <v>2699</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>2700</v>
+        <v>2691</v>
+      </c>
+      <c r="C183" s="19" t="s">
+        <v>2692</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.35">
@@ -15498,10 +15613,10 @@
         <v>99</v>
       </c>
       <c r="B184" t="s">
-        <v>2701</v>
-      </c>
-      <c r="C184" s="20" t="s">
-        <v>2702</v>
+        <v>2693</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>2694</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.35">
@@ -15509,7 +15624,7 @@
         <v>99</v>
       </c>
       <c r="B185" t="s">
-        <v>2696</v>
+        <v>2688</v>
       </c>
       <c r="C185" t="s">
         <v>123</v>
@@ -15520,10 +15635,10 @@
         <v>99</v>
       </c>
       <c r="B186" t="s">
-        <v>2714</v>
+        <v>2706</v>
       </c>
       <c r="C186" t="s">
-        <v>2715</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.35">
@@ -42668,10 +42783,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2781</v>
+        <v>2772</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>2782</v>
+        <v>2773</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>

--- a/config/forms/app/case_clinical_information.xlsx
+++ b/config/forms/app/case_clinical_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13508E8D-D3C2-4CD2-971B-F2E954859493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956C964-F5B6-4C0E-AA52-E1C6E8BF9F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9517" uniqueCount="2811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9518" uniqueCount="2811">
   <si>
     <t>form_title</t>
   </si>
@@ -8374,9 +8374,6 @@
     <t>selected(${evd_animal_exposure}, 'yes')</t>
   </si>
   <si>
-    <t>Has the patient had contact with any wild animals and their products in within the last five days?</t>
-  </si>
-  <si>
     <t>Has the patient had contact with any wild animals and their products in within the last month?</t>
   </si>
   <si>
@@ -8419,9 +8416,6 @@
     <t>vhf_symptoms_other</t>
   </si>
   <si>
-    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document the clinical details of the case, such as the symptoms that the patient reported and when they started, as well as any relevant medical history that may affect the case classification.&lt;/h4&gt; &lt;p&gt;c.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>ads_screening</t>
   </si>
   <si>
@@ -8474,6 +8468,12 @@
   </si>
   <si>
     <t>Disease Code</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="padding: 5px 0; font-weight: 400;"&gt;Use this section to document the clinical details of the case, such as the symptoms that the patient reported and when they started, as well as any relevant medical history that may affect the case classification.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>Has the patient had contact with any animals and/or their products in within the last five days?</t>
   </si>
 </sst>
 </file>
@@ -8995,9 +8995,9 @@
   <dimension ref="A1:M386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="A6:B6"/>
-      <selection pane="bottomLeft" activeCell="C57" sqref="C57:C58"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9766,7 +9766,7 @@
         <v>2754</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>2810</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="58" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9777,7 +9777,7 @@
         <v>2759</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>2809</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="59" spans="1:3" s="12" customFormat="1" x14ac:dyDescent="0.35">
@@ -9888,7 +9888,7 @@
         <v>40</v>
       </c>
       <c r="B69" t="s">
-        <v>2806</v>
+        <v>2804</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -9902,7 +9902,7 @@
         <v>40</v>
       </c>
       <c r="B70" t="s">
-        <v>2807</v>
+        <v>2805</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -9989,7 +9989,7 @@
         <v>2523</v>
       </c>
       <c r="C77" s="19" t="s">
-        <v>2805</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -9997,13 +9997,13 @@
         <v>75</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>2803</v>
+        <v>2801</v>
       </c>
       <c r="C78" s="19" t="s">
-        <v>2804</v>
+        <v>2802</v>
       </c>
       <c r="F78" s="19" t="s">
-        <v>2808</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="19" customFormat="1" x14ac:dyDescent="0.35">
@@ -10047,7 +10047,7 @@
         <v>2651</v>
       </c>
       <c r="C82" s="19" t="s">
-        <v>2792</v>
+        <v>2809</v>
       </c>
     </row>
     <row r="83" spans="1:13" s="16" customFormat="1" x14ac:dyDescent="0.35">
@@ -10063,13 +10063,13 @@
         <v>28</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>30</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>2794</v>
+        <v>2792</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>48</v>
@@ -10077,16 +10077,19 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>2799</v>
+        <v>2797</v>
       </c>
       <c r="B86" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="C86" t="s">
         <v>2474</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
+      </c>
+      <c r="H86" t="s">
+        <v>2561</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -10094,13 +10097,13 @@
         <v>55</v>
       </c>
       <c r="B87" t="s">
-        <v>2797</v>
+        <v>2795</v>
       </c>
       <c r="C87" t="s">
         <v>2558</v>
       </c>
       <c r="F87" t="s">
-        <v>2800</v>
+        <v>2798</v>
       </c>
       <c r="M87" t="s">
         <v>2597</v>
@@ -10111,7 +10114,7 @@
         <v>462</v>
       </c>
       <c r="B88" t="s">
-        <v>2798</v>
+        <v>2796</v>
       </c>
       <c r="C88" t="s">
         <v>2557</v>
@@ -10120,7 +10123,7 @@
         <v>13</v>
       </c>
       <c r="F88" t="s">
-        <v>2802</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.35">
@@ -10128,7 +10131,7 @@
         <v>46</v>
       </c>
       <c r="B89" t="s">
-        <v>2795</v>
+        <v>2793</v>
       </c>
       <c r="C89" t="s">
         <v>2492</v>
@@ -10145,7 +10148,7 @@
         <v>39</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>2793</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="92" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -10159,7 +10162,7 @@
         <v>30</v>
       </c>
       <c r="F92" s="13" t="s">
-        <v>2801</v>
+        <v>2799</v>
       </c>
       <c r="H92" s="13" t="s">
         <v>48</v>
@@ -10184,13 +10187,13 @@
         <v>75</v>
       </c>
       <c r="B94" s="19" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C94" s="19" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F94" s="19" t="s">
         <v>2779</v>
-      </c>
-      <c r="C94" s="19" t="s">
-        <v>2782</v>
-      </c>
-      <c r="F94" s="19" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -10198,10 +10201,10 @@
         <v>47</v>
       </c>
       <c r="B96" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="C96" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -10212,13 +10215,13 @@
         <v>75</v>
       </c>
       <c r="B97" s="19" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C97" s="19" t="s">
         <v>2784</v>
       </c>
-      <c r="C97" s="19" t="s">
+      <c r="F97" s="19" t="s">
         <v>2785</v>
-      </c>
-      <c r="F97" s="19" t="s">
-        <v>2786</v>
       </c>
     </row>
     <row r="98" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -10562,7 +10565,7 @@
         <v>55</v>
       </c>
       <c r="B126" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="C126" t="s">
         <v>2558</v>
@@ -10672,7 +10675,7 @@
         <v>2772</v>
       </c>
       <c r="C134" t="s">
-        <v>2777</v>
+        <v>2810</v>
       </c>
       <c r="D134" t="s">
         <v>13</v>
@@ -10686,7 +10689,7 @@
         <v>2773</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F135" s="8" t="s">
         <v>2774</v>
@@ -11188,7 +11191,7 @@
         <v>2771</v>
       </c>
       <c r="C175" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D175" t="s">
         <v>13</v>
@@ -11202,7 +11205,7 @@
         <v>2770</v>
       </c>
       <c r="C176" s="8" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F176" s="8" t="s">
         <v>2776</v>
@@ -13853,16 +13856,16 @@
         <v>2560</v>
       </c>
       <c r="B380" s="12" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C380" s="12" t="s">
         <v>2788</v>
-      </c>
-      <c r="C380" s="12" t="s">
-        <v>2789</v>
       </c>
       <c r="D380" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F380" s="12" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="381" spans="1:13" s="13" customFormat="1" x14ac:dyDescent="0.35">
@@ -14925,7 +14928,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B108" t="s">
         <v>2556</v>
@@ -14936,7 +14939,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B109" t="s">
         <v>44</v>
@@ -14947,7 +14950,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B110" t="s">
         <v>45</v>
@@ -14958,7 +14961,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B111" t="s">
         <v>96</v>
@@ -14969,7 +14972,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B112" t="s">
         <v>2554</v>
@@ -14980,7 +14983,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B113" t="s">
         <v>2555</v>
@@ -14991,7 +14994,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B114" t="s">
         <v>2553</v>
@@ -15002,7 +15005,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B115" t="s">
         <v>49</v>
@@ -15013,7 +15016,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B116" t="s">
         <v>2552</v>
@@ -15024,7 +15027,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B117" t="s">
         <v>2551</v>
@@ -15035,7 +15038,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B118" t="s">
         <v>2550</v>
@@ -15046,7 +15049,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B119" t="s">
         <v>52</v>
@@ -15057,7 +15060,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B120" t="s">
         <v>2549</v>
@@ -15068,7 +15071,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B121" t="s">
         <v>2547</v>
@@ -15079,7 +15082,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B122" t="s">
         <v>54</v>
@@ -15090,7 +15093,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>2796</v>
+        <v>2794</v>
       </c>
       <c r="B123" t="s">
         <v>178</v>

--- a/config/forms/app/case_clinical_information.xlsx
+++ b/config/forms/app/case_clinical_information.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5956C964-F5B6-4C0E-AA52-E1C6E8BF9F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C8EA56-9770-4AE5-B171-D6639B55EEDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
@@ -8995,9 +8995,9 @@
   <dimension ref="A1:M386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="A6:B6"/>
-      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10170,7 +10170,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
         <v>2484</v>
@@ -10198,7 +10198,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>168</v>
       </c>
       <c r="B96" t="s">
         <v>2782</v>

--- a/config/forms/app/case_clinical_information.xlsx
+++ b/config/forms/app/case_clinical_information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\morlig\icap\dmi-adam-repositories\dmi-adam\config\forms\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CEF1D0-7C66-4A11-803A-AC6A6930156A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF95AAE-C4FB-47F6-94EC-483D075B457D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{06C34439-B795-40B6-B34E-E6B3C4A90C1D}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -8769,10 +8769,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DDD78E-1CAD-40FF-A32D-5B3923D727A1}">
   <dimension ref="A1:M386"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="A6:B6"/>
-      <selection pane="bottomLeft" activeCell="C64" sqref="C64"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13711,7 +13711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D4FC2A0-D67F-4C90-AA33-E7BA9D8081DF}">
   <dimension ref="A1:E2139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A420" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C434" sqref="C434"/>
     </sheetView>
   </sheetViews>
